--- a/Excel/WingConfig.xlsx
+++ b/Excel/WingConfig.xlsx
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1181,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:7">
@@ -1198,7 +1198,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="3:7">
@@ -1215,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="3:7">

--- a/Excel/WingConfig.xlsx
+++ b/Excel/WingConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,36 @@
   </si>
   <si>
     <t>50,50,250</t>
+  </si>
+  <si>
+    <t>55,55,275</t>
+  </si>
+  <si>
+    <t>60,60,300</t>
+  </si>
+  <si>
+    <t>65,65,325</t>
+  </si>
+  <si>
+    <t>70,70,350</t>
+  </si>
+  <si>
+    <t>75,75,375</t>
+  </si>
+  <si>
+    <t>80,80,400</t>
+  </si>
+  <si>
+    <t>85,85,425</t>
+  </si>
+  <si>
+    <t>90,90,450</t>
+  </si>
+  <si>
+    <t>95,95,475</t>
+  </si>
+  <si>
+    <t>100,100,500</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1081,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1320,16 +1350,176 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1"/>
-    <row r="17" s="1" customFormat="1" customHeight="1"/>
-    <row r="18" s="1" customFormat="1" customHeight="1"/>
-    <row r="19" s="1" customFormat="1" customHeight="1"/>
-    <row r="20" s="1" customFormat="1" customHeight="1"/>
-    <row r="21" s="1" customFormat="1" customHeight="1"/>
-    <row r="22" s="1" customFormat="1" customHeight="1"/>
-    <row r="23" s="1" customFormat="1" customHeight="1"/>
-    <row r="24" s="1" customFormat="1" customHeight="1"/>
-    <row r="25" s="1" customFormat="1" customHeight="1"/>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1">
+        <v>55</v>
+      </c>
+    </row>
     <row r="26" s="1" customFormat="1" customHeight="1"/>
     <row r="27" s="1" customFormat="1" customHeight="1"/>
     <row r="28" s="1" customFormat="1" customHeight="1"/>

--- a/Excel/WingConfig.xlsx
+++ b/Excel/WingConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -117,6 +117,36 @@
   </si>
   <si>
     <t>100,100,500</t>
+  </si>
+  <si>
+    <t>105,105,550</t>
+  </si>
+  <si>
+    <t>110,110,600</t>
+  </si>
+  <si>
+    <t>115,115,650</t>
+  </si>
+  <si>
+    <t>120,120,700</t>
+  </si>
+  <si>
+    <t>125,125,750</t>
+  </si>
+  <si>
+    <t>130,130,800</t>
+  </si>
+  <si>
+    <t>135,135,850</t>
+  </si>
+  <si>
+    <t>140,140,900</t>
+  </si>
+  <si>
+    <t>145,145,950</t>
+  </si>
+  <si>
+    <t>150,150,1000</t>
   </si>
 </sst>
 </file>
@@ -1080,8 +1110,8 @@
   <sheetPr/>
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1517,19 +1547,190 @@
         <v>29</v>
       </c>
       <c r="G25" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1"/>
-    <row r="27" s="1" customFormat="1" customHeight="1"/>
-    <row r="28" s="1" customFormat="1" customHeight="1"/>
-    <row r="29" s="1" customFormat="1" customHeight="1"/>
-    <row r="30" s="1" customFormat="1" customHeight="1"/>
-    <row r="31" s="1" customFormat="1" customHeight="1"/>
-    <row r="32" s="1" customFormat="1" customHeight="1"/>
-    <row r="33" s="1" customFormat="1" customHeight="1"/>
-    <row r="34" s="1" customFormat="1" customHeight="1"/>
-    <row r="35" s="1" customFormat="1" customHeight="1"/>
+        <f t="shared" ref="G25:G35" si="0">G24+5</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>21</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>22</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1">
+        <v>24</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <v>25</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1">
+        <v>26</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <v>27</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <v>28</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1">
+        <v>29</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1">
+        <v>30</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
     <row r="36" s="1" customFormat="1" customHeight="1"/>
     <row r="37" s="1" customFormat="1" customHeight="1"/>
     <row r="38" s="1" customFormat="1" customHeight="1"/>

--- a/Excel/WingConfig.xlsx
+++ b/Excel/WingConfig.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Level</t>
+    <t>StartLevel</t>
+  </si>
+  <si>
+    <t>EndLevel</t>
   </si>
   <si>
     <t>AttrIdList</t>
@@ -41,9 +44,15 @@
     <t>AttrValueList</t>
   </si>
   <si>
+    <t>AttrRiseList</t>
+  </si>
+  <si>
     <t>Fee</t>
   </si>
   <si>
+    <t>FeeRise</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -119,34 +128,37 @@
     <t>100,100,500</t>
   </si>
   <si>
+    <t>5,5,50</t>
+  </si>
+  <si>
     <t>105,105,550</t>
   </si>
   <si>
-    <t>110,110,600</t>
-  </si>
-  <si>
-    <t>115,115,650</t>
-  </si>
-  <si>
-    <t>120,120,700</t>
-  </si>
-  <si>
-    <t>125,125,750</t>
-  </si>
-  <si>
-    <t>130,130,800</t>
-  </si>
-  <si>
-    <t>135,135,850</t>
-  </si>
-  <si>
-    <t>140,140,900</t>
-  </si>
-  <si>
-    <t>145,145,950</t>
-  </si>
-  <si>
-    <t>150,150,1000</t>
+    <t>6,29,15,2003</t>
+  </si>
+  <si>
+    <t>155,155,1100,1</t>
+  </si>
+  <si>
+    <t>5,5,60,1</t>
+  </si>
+  <si>
+    <t>6,29,15,2003,2002</t>
+  </si>
+  <si>
+    <t>205,205,1700,10,1</t>
+  </si>
+  <si>
+    <t>5,5,70,1,1</t>
+  </si>
+  <si>
+    <t>6,29,15,2003,2002,2001</t>
+  </si>
+  <si>
+    <t>255,255,2400,21,10,1</t>
+  </si>
+  <si>
+    <t>5,5,80,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1119,35 +1131,38 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="2" customWidth="1"/>
-    <col min="10" max="16371" width="9" style="2"/>
-    <col min="16372" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="2" customWidth="1"/>
+    <col min="12" max="16373" width="9" style="2"/>
+    <col min="16374" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1165,14 +1180,22 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1186,551 +1209,678 @@
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:7">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
+      <c r="E6" s="1">
+        <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="G6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
+      <c r="E7" s="1">
+        <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
+      <c r="E8" s="1">
+        <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
+      <c r="E9" s="1">
+        <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
+      <c r="E10" s="1">
+        <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>6</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
+      <c r="E11" s="1">
+        <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
+      <c r="E12" s="1">
+        <v>7</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
+      <c r="E13" s="1">
+        <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1">
         <v>9</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
+      <c r="E15" s="1">
+        <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="1">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
+      <c r="E16" s="1">
+        <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>12</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
+      <c r="E17" s="1">
+        <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="1">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="1">
         <v>13</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>9</v>
+      <c r="E18" s="1">
+        <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="1">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="1">
         <v>14</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>9</v>
+      <c r="E19" s="1">
+        <v>14</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="1">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="1">
         <v>15</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
+      <c r="E20" s="1">
+        <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="1">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="1">
         <v>16</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
+      <c r="E21" s="1">
+        <v>16</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="1">
+        <v>12</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="1">
         <v>17</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>9</v>
+      <c r="E22" s="1">
+        <v>17</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="1">
+        <v>12</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="1">
         <v>18</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>9</v>
+      <c r="E23" s="1">
+        <v>18</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="1">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="1">
         <v>19</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>9</v>
+      <c r="E24" s="1">
+        <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="1">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="1">
         <v>20</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>9</v>
+      <c r="E25" s="1">
+        <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" ref="G25:G35" si="0">G24+5</f>
+        <v>12</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="1">
+        <f>I24+5</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="1">
         <v>21</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>9</v>
+      <c r="E26" s="1">
+        <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="1">
+        <f>I25+5</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="J26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1">
-        <v>22</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="E27" s="1">
+        <v>40</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:7">
+        <v>35</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="1">
+        <v>115</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C28" s="1">
         <v>23</v>
       </c>
       <c r="D28" s="1">
-        <v>23</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:7">
+        <v>38</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="1">
+        <v>165</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C29" s="1">
         <v>24</v>
       </c>
       <c r="D29" s="1">
-        <v>24</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>9</v>
+        <v>51</v>
+      </c>
+      <c r="E29" s="1">
+        <v>60</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C30" s="1">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1">
-        <v>25</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C31" s="1">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1">
-        <v>26</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C32" s="1">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1">
-        <v>27</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C33" s="1">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1">
-        <v>28</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C34" s="1">
-        <v>29</v>
-      </c>
-      <c r="D34" s="1">
-        <v>29</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C35" s="1">
-        <v>30</v>
-      </c>
-      <c r="D35" s="1">
-        <v>30</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
+        <v>41</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="1">
+        <v>215</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1"/>
+    <row r="31" s="1" customFormat="1" customHeight="1"/>
+    <row r="32" s="1" customFormat="1" customHeight="1"/>
+    <row r="33" s="1" customFormat="1" customHeight="1"/>
+    <row r="34" s="1" customFormat="1" customHeight="1"/>
+    <row r="35" s="1" customFormat="1" customHeight="1"/>
     <row r="36" s="1" customFormat="1" customHeight="1"/>
     <row r="37" s="1" customFormat="1" customHeight="1"/>
     <row r="38" s="1" customFormat="1" customHeight="1"/>
@@ -1789,11 +1939,9 @@
     <row r="91" s="1" customFormat="1" customHeight="1"/>
     <row r="92" s="1" customFormat="1" customHeight="1"/>
     <row r="93" s="1" customFormat="1" customHeight="1"/>
-    <row r="94" s="1" customFormat="1" customHeight="1"/>
-    <row r="95" s="1" customFormat="1" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 D4 E4 F4 G4 H4 I4 J4 D5 E5 F5 G5 H5 I5 J5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/WingConfig.xlsx
+++ b/Excel/WingConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -146,7 +146,7 @@
     <t>6,29,15,2003,2002</t>
   </si>
   <si>
-    <t>205,205,1700,10,1</t>
+    <t>205,205,1700,11,1</t>
   </si>
   <si>
     <t>5,5,70,1,1</t>
@@ -155,10 +155,28 @@
     <t>6,29,15,2003,2002,2001</t>
   </si>
   <si>
-    <t>255,255,2400,21,10,1</t>
+    <t>255,255,2400,21,11,1</t>
   </si>
   <si>
     <t>5,5,80,1,1,1</t>
+  </si>
+  <si>
+    <t>6,29,15,2003,2002,2001,2010</t>
+  </si>
+  <si>
+    <t>255,255,3200,31,21,11,1</t>
+  </si>
+  <si>
+    <t>5,5,90,1,1,1,1</t>
+  </si>
+  <si>
+    <t>6,29,15,2003,2002,2001,2010,2011</t>
+  </si>
+  <si>
+    <t>255,255,4100,41,31,21,11,1</t>
+  </si>
+  <si>
+    <t>5,5,100,1,1,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1140,8 @@
   <sheetPr/>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1132,7 +1150,7 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
@@ -1875,8 +1893,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1"/>
-    <row r="31" s="1" customFormat="1" customHeight="1"/>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1">
+        <v>70</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="1">
+        <v>265</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1">
+        <v>71</v>
+      </c>
+      <c r="E31" s="1">
+        <v>80</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="1">
+        <v>315</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="32" s="1" customFormat="1" customHeight="1"/>
     <row r="33" s="1" customFormat="1" customHeight="1"/>
     <row r="34" s="1" customFormat="1" customHeight="1"/>

--- a/Excel/WingConfig.xlsx
+++ b/Excel/WingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>6,29,15,2003,2002,2001,2010</t>
   </si>
   <si>
-    <t>255,255,3200,31,21,11,1</t>
+    <t>305,305,3200,31,21,11,1</t>
   </si>
   <si>
     <t>5,5,90,1,1,1,1</t>
@@ -173,7 +173,7 @@
     <t>6,29,15,2003,2002,2001,2010,2011</t>
   </si>
   <si>
-    <t>255,255,4100,41,31,21,11,1</t>
+    <t>355,355,4100,41,31,21,11,1</t>
   </si>
   <si>
     <t>5,5,100,1,1,1,1,1</t>
@@ -1140,8 +1140,8 @@
   <sheetPr/>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/WingConfig.xlsx
+++ b/Excel/WingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>5,5,100,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>400,400,5200,52,42,32,22,12</t>
+  </si>
+  <si>
+    <t>0,0,200,2,2,2,2,2</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1146,8 @@
   <sheetPr/>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1150,7 +1156,7 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
@@ -1945,7 +1951,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1"/>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1">
+        <v>90</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="1">
+        <v>365</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="33" s="1" customFormat="1" customHeight="1"/>
     <row r="34" s="1" customFormat="1" customHeight="1"/>
     <row r="35" s="1" customFormat="1" customHeight="1"/>
@@ -2009,7 +2040,7 @@
     <row r="93" s="1" customFormat="1" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 D4 E4 F4 G4 H4 I4 J4 D5 E5 F5 G5 H5 I5 J5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:J3 E4:J4 E5:J5 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/WingConfig.xlsx
+++ b/Excel/WingConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>0,0,200,2,2,2,2,2</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -1146,8 +1149,8 @@
   <sheetPr/>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1977,7 +1980,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1"/>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <v>91</v>
+      </c>
+      <c r="E33" s="1">
+        <v>100</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="1">
+        <v>415</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="34" s="1" customFormat="1" customHeight="1"/>
     <row r="35" s="1" customFormat="1" customHeight="1"/>
     <row r="36" s="1" customFormat="1" customHeight="1"/>
@@ -2040,7 +2074,7 @@
     <row r="93" s="1" customFormat="1" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:J3 E4:J4 E5:J5 C3:C5 D4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:J5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/WingConfig.xlsx
+++ b/Excel/WingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -62,130 +62,139 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>long[]</t>
+    <t>double[]</t>
   </si>
   <si>
     <t>6,29,15</t>
   </si>
   <si>
-    <t>5,5,25</t>
-  </si>
-  <si>
-    <t>10,10,50</t>
-  </si>
-  <si>
-    <t>15,15,75</t>
-  </si>
-  <si>
-    <t>20,20,100</t>
-  </si>
-  <si>
-    <t>25,25,125</t>
-  </si>
-  <si>
-    <t>30,30,150</t>
-  </si>
-  <si>
-    <t>35,35,175</t>
-  </si>
-  <si>
-    <t>40,40,200</t>
-  </si>
-  <si>
-    <t>45,45,225</t>
-  </si>
-  <si>
-    <t>50,50,250</t>
-  </si>
-  <si>
-    <t>55,55,275</t>
-  </si>
-  <si>
-    <t>60,60,300</t>
-  </si>
-  <si>
-    <t>65,65,325</t>
-  </si>
-  <si>
-    <t>70,70,350</t>
-  </si>
-  <si>
-    <t>75,75,375</t>
-  </si>
-  <si>
-    <t>80,80,400</t>
-  </si>
-  <si>
-    <t>85,85,425</t>
-  </si>
-  <si>
-    <t>90,90,450</t>
-  </si>
-  <si>
-    <t>95,95,475</t>
-  </si>
-  <si>
-    <t>100,100,500</t>
-  </si>
-  <si>
-    <t>5,5,50</t>
-  </si>
-  <si>
-    <t>105,105,550</t>
+    <t>5,5,250</t>
+  </si>
+  <si>
+    <t>10,10,500</t>
+  </si>
+  <si>
+    <t>15,15,750</t>
+  </si>
+  <si>
+    <t>20,20,1000</t>
+  </si>
+  <si>
+    <t>25,25,1250</t>
+  </si>
+  <si>
+    <t>30,30,1500</t>
+  </si>
+  <si>
+    <t>35,35,1750</t>
+  </si>
+  <si>
+    <t>40,40,2000</t>
+  </si>
+  <si>
+    <t>45,45,2250</t>
+  </si>
+  <si>
+    <t>50,50,2500</t>
+  </si>
+  <si>
+    <t>55,55,2750</t>
+  </si>
+  <si>
+    <t>60,60,3000</t>
+  </si>
+  <si>
+    <t>65,65,3250</t>
+  </si>
+  <si>
+    <t>70,70,3500</t>
+  </si>
+  <si>
+    <t>75,75,3750</t>
+  </si>
+  <si>
+    <t>80,80,4000</t>
+  </si>
+  <si>
+    <t>85,85,4250</t>
+  </si>
+  <si>
+    <t>90,90,4500</t>
+  </si>
+  <si>
+    <t>95,95,4750</t>
+  </si>
+  <si>
+    <t>100,100,5000</t>
+  </si>
+  <si>
+    <t>5,5,500</t>
+  </si>
+  <si>
+    <t>105,105,5500</t>
   </si>
   <si>
     <t>6,29,15,2003</t>
   </si>
   <si>
-    <t>155,155,1100,1</t>
-  </si>
-  <si>
-    <t>5,5,60,1</t>
+    <t>155,155,11000,5</t>
+  </si>
+  <si>
+    <t>5,5,600,5</t>
   </si>
   <si>
     <t>6,29,15,2003,2002</t>
   </si>
   <si>
-    <t>205,205,1700,11,1</t>
-  </si>
-  <si>
-    <t>5,5,70,1,1</t>
+    <t>205,205,17000,55,5</t>
+  </si>
+  <si>
+    <t>5,5,700,5,5</t>
   </si>
   <si>
     <t>6,29,15,2003,2002,2001</t>
   </si>
   <si>
-    <t>255,255,2400,21,11,1</t>
-  </si>
-  <si>
-    <t>5,5,80,1,1,1</t>
+    <t>255,255,24000,105,55,5</t>
+  </si>
+  <si>
+    <t>5,5,800,5,5,5</t>
   </si>
   <si>
     <t>6,29,15,2003,2002,2001,2010</t>
   </si>
   <si>
-    <t>305,305,3200,31,21,11,1</t>
-  </si>
-  <si>
-    <t>5,5,90,1,1,1,1</t>
+    <t>305,305,32000,155,105,55,5</t>
+  </si>
+  <si>
+    <t>5,5,900,5,5,5,5</t>
   </si>
   <si>
     <t>6,29,15,2003,2002,2001,2010,2011</t>
   </si>
   <si>
-    <t>355,355,4100,41,31,21,11,1</t>
-  </si>
-  <si>
-    <t>5,5,100,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>400,400,5200,52,42,32,22,12</t>
-  </si>
-  <si>
-    <t>0,0,200,2,2,2,2,2</t>
-  </si>
-  <si>
-    <t>#</t>
+    <t>355,355,41000,205,155,105,55,5</t>
+  </si>
+  <si>
+    <t>5,5,1000,5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>6,29,15,2003,2002,2001,2010,2011,32</t>
+  </si>
+  <si>
+    <t>400,400,52000,260,210,155,105,55,1</t>
+  </si>
+  <si>
+    <t>0,0,2000,10,10,10,5,5.1</t>
+  </si>
+  <si>
+    <t>6,29,15,2003,2002,2001,2010,2011,32,31</t>
+  </si>
+  <si>
+    <t>400,400,72000,360,310,255,155,105,11,1</t>
+  </si>
+  <si>
+    <t>0,0,3000,10,10,10,5,5,1,1</t>
   </si>
 </sst>
 </file>
@@ -1149,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1159,9 +1168,9 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.625" style="2" customWidth="1"/>
@@ -1965,13 +1974,13 @@
         <v>90</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I32" s="1">
         <v>365</v>
@@ -1980,13 +1989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -1997,13 +2000,13 @@
         <v>100</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I33" s="1">
         <v>415</v>
@@ -2074,7 +2077,7 @@
     <row r="93" s="1" customFormat="1" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:J5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C5:F5 G5 H5:J5 C3:J4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/WingConfig.xlsx
+++ b/Excel/WingConfig.xlsx
@@ -62,7 +62,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>double[]</t>
+    <t>long[]</t>
   </si>
   <si>
     <t>6,29,15</t>
@@ -137,7 +137,7 @@
     <t>6,29,15,2003</t>
   </si>
   <si>
-    <t>155,155,11000,5</t>
+    <t>155,155,10500,5</t>
   </si>
   <si>
     <t>5,5,600,5</t>
@@ -146,7 +146,7 @@
     <t>6,29,15,2003,2002</t>
   </si>
   <si>
-    <t>205,205,17000,55,5</t>
+    <t>205,205,16500,55,5</t>
   </si>
   <si>
     <t>5,5,700,5,5</t>
@@ -155,7 +155,7 @@
     <t>6,29,15,2003,2002,2001</t>
   </si>
   <si>
-    <t>255,255,24000,105,55,5</t>
+    <t>255,255,23500,105,55,5</t>
   </si>
   <si>
     <t>5,5,800,5,5,5</t>
@@ -164,7 +164,7 @@
     <t>6,29,15,2003,2002,2001,2010</t>
   </si>
   <si>
-    <t>305,305,32000,155,105,55,5</t>
+    <t>305,305,31500,155,105,55,5</t>
   </si>
   <si>
     <t>5,5,900,5,5,5,5</t>
@@ -173,7 +173,7 @@
     <t>6,29,15,2003,2002,2001,2010,2011</t>
   </si>
   <si>
-    <t>355,355,41000,205,155,105,55,5</t>
+    <t>355,355,40500,205,155,105,55,5</t>
   </si>
   <si>
     <t>5,5,1000,5,5,5,5,5</t>
@@ -182,16 +182,16 @@
     <t>6,29,15,2003,2002,2001,2010,2011,32</t>
   </si>
   <si>
-    <t>400,400,52000,260,210,155,105,55,1</t>
-  </si>
-  <si>
-    <t>0,0,2000,10,10,10,5,5.1</t>
+    <t>400,400,50500,255,205,155,105,55,1</t>
+  </si>
+  <si>
+    <t>0,0,2000,10,10,10,5,5,1</t>
   </si>
   <si>
     <t>6,29,15,2003,2002,2001,2010,2011,32,31</t>
   </si>
   <si>
-    <t>400,400,72000,360,310,255,155,105,11,1</t>
+    <t>400,400,70500,355,305,255,155,105,11,1</t>
   </si>
   <si>
     <t>0,0,3000,10,10,10,5,5,1,1</t>
@@ -1158,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2077,7 +2077,7 @@
     <row r="93" s="1" customFormat="1" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C5:F5 G5 H5:J5 C3:J4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:J5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
